--- a/biology/Botanique/Euphorbia_indica/Euphorbia_indica.xlsx
+++ b/biology/Botanique/Euphorbia_indica/Euphorbia_indica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euphorbia indica est une espèce de plantes à fleurs appartenant à la famille des Euphorbiaceae. 
 </t>
@@ -511,11 +523,13 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante est désignée sous plusieurs noms en français : Euphorbe d'Inde[1] ou encore Ortie de l'Inde, Ricinelle indienne[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante est désignée sous plusieurs noms en français : Euphorbe d'Inde ou encore Ortie de l'Inde, Ricinelle indienne. 
 À La Réunion, elle est appelée herbe chatte ou encore zoreille chatte.
-Son autre nom scientifique est Acalypha indica L.[2],[3]. 
+Son autre nom scientifique est Acalypha indica L.,. 
 </t>
         </is>
       </c>
@@ -544,12 +558,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Euphorbia indica est une herbe verte à petites fleurs vertes, qui se reproduit par graine.
-Elle serait originaire d'Asie et de l'Afrique tropicale[2].
+Elle serait originaire d'Asie et de l'Afrique tropicale.
 Elle évolue dans des zones de basse altitude. Elle est présente dans l'Ouest et aussi dans le Sud de l'île de La Réunion.
-Il s'agit là d'une plante anthropochore c'est-à-dire disséminée par l'Homme au fil de ses déplacements. Elle est fréquente dans les jardins et les champs cultivés[2].
+Il s'agit là d'une plante anthropochore c'est-à-dire disséminée par l'Homme au fil de ses déplacements. Elle est fréquente dans les jardins et les champs cultivés.
 On l'appelle zoreille chatte ou herbe chatte car la forme de la feuille ressemble à des oreilles de chat[réf. nécessaire]. 
 </t>
         </is>
@@ -579,9 +595,11 @@
           <t>Utilisation médicinale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante médicinale expectorante à faible dose et vomitive à forte dose, car elle contient de l'émétine. Elle doit être utilisée ce pendant avec beaucoup de prudence[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante médicinale expectorante à faible dose et vomitive à forte dose, car elle contient de l'émétine. Elle doit être utilisée ce pendant avec beaucoup de prudence.
 </t>
         </is>
       </c>
